--- a/pred_ohlcv/54_21/2019-10-24 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 FNB ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>23505643.58783292</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>23278580.88803292</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>23278580.88803292</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>23495162.32653292</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>23021953.07023292</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>20939418.13653292</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>22096821.57319532</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>23231823.99139532</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>26895252.88169533</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>24346663.59089532</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>23783595.57159533</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>24630525.19949533</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25881697.15139533</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>25048474.47559533</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22612781.63739533</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>14709535.08497578</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>14508415.52057578</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>14509015.52057578</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>14690536.38937578</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>14690526.38937578</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>14696873.98027578</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>15109820.73799413</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>16672025.18219413</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>16870875.03939413</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>17040946.67779413</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>17132005.35389413</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>16998566.66179717</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>17001588.66179717</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>16878070.6555305</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>16871684.8902305</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16869515.6364305</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16873059.60023202</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16871059.60023202</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>16871069.60023202</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>16279805.87023202</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>17149377.45258509</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>17149377.45258509</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>16448559.76288509</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>17984844.60748509</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18031852.08328509</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>18029799.08328509</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>18218920.60938509</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>17881042.02078509</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>12500086.87648509</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>12500086.87648509</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>12500031.98848509</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>12694965.33618509</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>13010377.43628509</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>13010377.43628509</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>13006199.10728509</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>14520393.88868509</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>14373288.37358509</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>14569932.80948509</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>15013870.27248509</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>15580958.59458509</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>15882849.50608509</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>15752373.92308509</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>15620557.94498509</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>15818708.50688509</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>15765896.58798509</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>15795956.58798509</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>15795956.58798509</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>15904147.52758509</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>15754418.64428509</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>15784396.32658509</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>15881378.12818509</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>15881378.12818509</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>15881378.12818509</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>16068262.01108509</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>15692521.39287424</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>15692521.39287424</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>15692521.39287424</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>15692521.39287424</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>15692521.39287424</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>15501063.62237423</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>15501063.62237423</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>15645559.39427423</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>15829750.23827424</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>8534673.610335223</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>7210342.350235224</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>7831494.160035224</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>7475003.39016103</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>7895737.45666103</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>7947444.08286103</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>8136621.69236103</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>8102205.16716103</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>7607473.368661029</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7577254.03076103</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7533294.98506103</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>7607781.72596103</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>7661484.87556103</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>7934261.585861029</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>7878755.330761029</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>7254270.007661029</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>7259037.175561029</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>7259026.175561029</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6999435.621361029</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>7260266.54176103</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>7240289.05806103</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>7240299.05806103</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>7261422.768261029</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7274290.12056103</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7184264.49406103</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>7191624.70786103</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>6988652.981461029</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>5783203.300161029</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>6241988.940561029</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>6243950.332716585</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5625044.814016585</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5665168.273516585</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>6540330.989705474</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>6952007.062605474</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>6205459.510005474</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7175384.875305474</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7109003.089105474</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>7203140.476805474</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7203130.476805474</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7203151.476805474</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>7702239.392405474</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>8013844.858705474</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>8967330.606905473</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>10443017.27710547</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>9615112.804105474</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>13179220.93400547</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 FNB ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>23505643.58783292</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24515692.23213292</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>23495162.32653292</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>23231823.99139532</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>23500939.25815664</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>24140730.30569533</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>26895252.88169533</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>24346663.59089532</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>23783595.57159533</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>25265929.79559533</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>24630525.19949533</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>25881697.15139533</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>25834236.40419533</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>25048474.47559533</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>22612781.63739533</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>18083851.58779533</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>16554212.88709413</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>16672025.18219413</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>16670079.34519413</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>16870875.03939413</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>17040946.67779413</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>17132005.35389413</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>16998566.66179717</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>17001588.66179717</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>16878070.6555305</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>16871684.8902305</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>16872838.5447305</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16869515.6364305</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16873059.60023202</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16871059.60023202</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>16871069.60023202</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>16279805.87023202</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>15580958.59458509</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>15882849.50608509</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>15752373.92308509</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>15620557.94498509</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>15818708.50688509</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>15765896.58798509</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>15795956.58798509</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>10020649.47277874</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>10146989.04417874</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>8702158.734078741</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>8702158.734078741</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>8702178.734078741</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>8712110.420935228</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>9010033.998235228</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>9505663.324235225</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>8859228.968735224</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>8534673.610335223</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>7210342.350235224</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>7831494.160035224</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>7475003.39016103</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>7891453.95666103</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>7896308.95666103</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>7895737.45666103</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>7947444.08286103</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>7932251.101561029</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>8136621.69236103</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>8102205.16716103</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>8102257.73716103</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>7802141.78066103</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>7607473.368661029</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>7736593.74076103</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>7577254.03076103</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>7533294.98506103</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>7533326.85806103</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>7756933.090761029</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>7607781.72596103</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>7661484.87556103</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>7551413.764461029</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>7551434.529861029</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>8038399.408561029</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>7934112.719961029</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>7934261.585861029</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>7873573.245761029</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>7888755.330761029</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>7878755.330761029</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>8103891.801961029</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>8160994.826561029</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>8020610.199561029</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>7254270.007661029</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>7258994.064461029</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>7259037.175561029</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>7259026.175561029</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>6999435.621361029</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>7260266.54176103</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>7240289.05806103</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>7240299.05806103</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>7131337.22286103</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>6950982.09976103</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>7261422.768261029</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>7174774.768261029</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>7274290.12056103</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>7184264.49406103</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>7191624.70786103</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>6988652.981461029</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>5783203.300161029</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>6241988.940561029</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>6243682.777161029</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>6243950.332716585</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>5625044.814016585</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>5665168.273516585</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>6540330.989705474</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>6952007.062605474</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>6205459.510005474</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>7175384.875305474</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>7109003.089105474</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>7203140.476805474</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>7203130.476805474</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>7203151.476805474</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>7702239.392405474</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>8013844.858705474</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>7713835.103205474</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>8967330.606905473</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>10443017.27710547</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>9615112.804105474</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>13179220.93400547</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>13358198.86330547</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>24161729.29203826</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>24161729.29203826</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>23121436.55763826</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>21828793.65973826</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>24214375.65213826</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>23354748.63553826</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
